--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2328.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2328.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.412566707958515</v>
+        <v>1.057915210723877</v>
       </c>
       <c r="B1">
-        <v>2.922842435632767</v>
+        <v>1.359564781188965</v>
       </c>
       <c r="C1">
-        <v>1.045740420292238</v>
+        <v>1.183177947998047</v>
       </c>
       <c r="D1">
-        <v>0.6901044429657275</v>
+        <v>1.246571898460388</v>
       </c>
       <c r="E1">
-        <v>0.5683261201783466</v>
+        <v>1.286367774009705</v>
       </c>
     </row>
   </sheetData>
